--- a/Working Docs/Persoenliches_und_Gruppen-Journal_fuer_Kurs_BTX8101.xlsx
+++ b/Working Docs/Persoenliches_und_Gruppen-Journal_fuer_Kurs_BTX8101.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Patrick Jolo" sheetId="8" r:id="rId5"/>
     <sheet name="Remy Lam" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
   <si>
     <t>Ergebnis</t>
   </si>
@@ -193,6 +198,12 @@
   </si>
   <si>
     <t>Personalplanung</t>
+  </si>
+  <si>
+    <t>Konzept für eine Onlinehilfe</t>
+  </si>
+  <si>
+    <t>Risikoanalyse für Spitalinf</t>
   </si>
 </sst>
 </file>
@@ -972,7 +983,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,64 +996,64 @@
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.6328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.6328125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="22.7265625" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="30.6328125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="22.7265625" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="30.6328125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.7265625" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" customWidth="1"/>
-    <col min="27" max="27" width="14.6328125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="30.6328125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.7265625" customWidth="1"/>
-    <col min="30" max="30" width="9.36328125" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="30.6328125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.7265625" customWidth="1"/>
-    <col min="35" max="35" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="30.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="30.5703125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Tabelle69712[Person]</f>
         <v>Fabian Kammermann</v>
@@ -1060,7 +1071,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Tabelle69716[Person]</f>
         <v>Pascal Dittli</v>
@@ -1070,17 +1081,17 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Tabelle69718[Person]</f>
         <v>Patrick Jolo</v>
       </c>
       <c r="B7" s="13">
         <f>Tabelle69718[Aufwand Total]</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Tabelle69720[Person]</f>
         <v>Remy Lam</v>
@@ -1090,13 +1101,13 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>225.5</v>
+        <v>229.5</v>
       </c>
     </row>
   </sheetData>
@@ -1119,16 +1130,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="51.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1147,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1146,7 +1157,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Gruppe 6</v>
@@ -1159,26 +1170,26 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -1196,7 +1207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1215,7 +1226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1234,7 +1245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1264,7 +1275,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1283,7 +1294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1313,7 +1324,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1343,7 +1354,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1373,7 +1384,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1402,7 +1413,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1425,7 +1436,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1444,7 +1455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1463,7 +1474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1482,7 +1493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1501,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1520,7 +1531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1539,7 +1550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1558,7 +1569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1577,7 +1588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1596,7 +1607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1615,7 +1626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1634,7 +1645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1653,7 +1664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1672,7 +1683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1691,7 +1702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1710,7 +1721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1729,7 +1740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1748,7 +1759,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1767,7 +1778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1786,7 +1797,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1795,7 +1806,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1804,7 +1815,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1813,7 +1824,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1822,7 +1833,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1831,7 +1842,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1840,7 +1851,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1849,7 +1860,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1858,7 +1869,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1867,7 +1878,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1876,7 +1887,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1885,7 +1896,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1894,7 +1905,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1903,7 +1914,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1912,7 +1923,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1921,7 +1932,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1930,7 +1941,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1939,7 +1950,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1948,7 +1959,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1957,7 +1968,7 @@
       <c r="C54" s="6"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1966,7 +1977,7 @@
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1975,7 +1986,7 @@
       <c r="C56" s="6"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1984,7 +1995,7 @@
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -1993,7 +2004,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2002,7 +2013,7 @@
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2011,7 +2022,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2020,7 +2031,7 @@
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2029,7 +2040,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2038,7 +2049,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2047,7 +2058,7 @@
       <c r="C64" s="6"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2056,7 +2067,7 @@
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2065,7 +2076,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2074,7 +2085,7 @@
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2083,7 +2094,7 @@
       <c r="C68" s="6"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2092,7 +2103,7 @@
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2101,7 +2112,7 @@
       <c r="C70" s="6"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2110,7 +2121,7 @@
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2119,7 +2130,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2128,7 +2139,7 @@
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2137,7 +2148,7 @@
       <c r="C74" s="6"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2146,7 +2157,7 @@
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2155,7 +2166,7 @@
       <c r="C76" s="6"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2164,7 +2175,7 @@
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2173,7 +2184,7 @@
       <c r="C78" s="6"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2182,7 +2193,7 @@
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2191,7 +2202,7 @@
       <c r="C80" s="6"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2200,7 +2211,7 @@
       <c r="C81" s="6"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2209,7 +2220,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2218,7 +2229,7 @@
       <c r="C83" s="6"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2227,7 +2238,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2236,7 +2247,7 @@
       <c r="C85" s="6"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2245,7 +2256,7 @@
       <c r="C86" s="6"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2254,7 +2265,7 @@
       <c r="C87" s="6"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2263,7 +2274,7 @@
       <c r="C88" s="6"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2272,7 +2283,7 @@
       <c r="C89" s="6"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2281,7 +2292,7 @@
       <c r="C90" s="6"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2290,7 +2301,7 @@
       <c r="C91" s="6"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2299,7 +2310,7 @@
       <c r="C92" s="6"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2308,7 +2319,7 @@
       <c r="C93" s="6"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2317,7 +2328,7 @@
       <c r="C94" s="6"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2326,7 +2337,7 @@
       <c r="C95" s="6"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2335,7 +2346,7 @@
       <c r="C96" s="6"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2344,7 +2355,7 @@
       <c r="C97" s="6"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2353,7 +2364,7 @@
       <c r="C98" s="6"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2362,7 +2373,7 @@
       <c r="C99" s="6"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2371,7 +2382,7 @@
       <c r="C100" s="6"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2380,7 +2391,7 @@
       <c r="C101" s="6"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="11">
         <f>WEEKNUM(Tabelle35108213[[#This Row],[Datum]])-1</f>
@@ -2389,7 +2400,7 @@
       <c r="C102" s="6"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="13"/>
       <c r="C103" s="8" t="s">
@@ -2423,23 +2434,23 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Fabian Kammermann</v>
@@ -2459,14 +2470,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -2481,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>38</v>
@@ -2496,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>39</v>
@@ -2511,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -2526,7 +2537,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -2541,7 +2552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -2556,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>41</v>
@@ -2571,7 +2582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -2586,7 +2597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -2601,7 +2612,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -2616,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -2631,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -2646,7 +2657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -2661,7 +2672,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -2676,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -2691,7 +2702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -2706,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -2721,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -2736,409 +2747,409 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <f>WEEKNUM(Tabelle3510813[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="8" t="s">
         <v>0</v>
@@ -3170,23 +3181,23 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.08984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3194,7 +3205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Pascal Dittli</v>
@@ -3206,14 +3217,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -3228,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>38</v>
@@ -3243,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>39</v>
@@ -3258,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -3273,7 +3284,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -3288,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -3303,7 +3314,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>41</v>
@@ -3318,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>41</v>
@@ -3333,7 +3344,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -3348,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -3363,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -3378,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -3393,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -3408,7 +3419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -3423,7 +3434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -3438,7 +3449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -3453,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -3468,373 +3479,373 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <f>WEEKNUM(Tabelle3510817[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="13"/>
       <c r="C85" s="8" t="s">
         <v>0</v>
@@ -3862,27 +3873,27 @@
   </sheetPr>
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3890,7 +3901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Patrick Jolo</v>
@@ -3898,18 +3909,18 @@
       <c r="B3">
         <f>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -3924,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>38</v>
@@ -3939,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>39</v>
@@ -3954,7 +3965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -3969,7 +3980,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -3984,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>41</v>
@@ -3999,7 +4010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -4014,7 +4025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -4029,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -4044,7 +4055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -4059,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -4074,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4089,7 +4100,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4104,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4119,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4134,7 +4145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4149,367 +4160,385 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6">
+        <v>42732</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6">
+        <v>42733</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
       <c r="C83" s="8" t="s">
         <v>0</v>
@@ -4517,7 +4546,7 @@
       <c r="E83">
         <f>SUBTOTAL(109,Tabelle3510819[Aufwand
 (in h)])</f>
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4541,23 +4570,23 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4565,7 +4594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>B6</f>
         <v>Remy Lam</v>
@@ -4577,14 +4606,14 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
@@ -4599,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>38</v>
@@ -4614,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>39</v>
@@ -4629,7 +4658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>36</v>
@@ -4644,7 +4673,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -4659,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -4674,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>40</v>
@@ -4689,7 +4718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>41</v>
@@ -4704,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -4719,7 +4748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>42</v>
@@ -4734,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -4749,7 +4778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>43</v>
@@ -4764,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -4779,7 +4808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -4794,7 +4823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>44</v>
@@ -4809,7 +4838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>45</v>
@@ -4824,7 +4853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4839,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4854,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>46</v>
@@ -4869,415 +4898,415 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <f>WEEKNUM(Tabelle3510821[[#This Row],[Datum]])-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="13"/>
       <c r="C94" s="8" t="s">
         <v>0</v>

--- a/Working Docs/Persoenliches_und_Gruppen-Journal_fuer_Kurs_BTX8101.xlsx
+++ b/Working Docs/Persoenliches_und_Gruppen-Journal_fuer_Kurs_BTX8101.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="59">
   <si>
     <t>Ergebnis</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Risikoanalyse für Spitalinf</t>
+  </si>
+  <si>
+    <t>Variante für Spitalinf.</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1091,7 @@
       </c>
       <c r="B7" s="13">
         <f>Tabelle69718[Aufwand Total]</f>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,7 +1110,7 @@
       </c>
       <c r="B9">
         <f>SUBTOTAL(109,Tabelle69[Aufwand Total])</f>
-        <v>229.5</v>
+        <v>233.5</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3877,7 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3912,7 @@
       <c r="B3">
         <f>Tabelle3510819[[#Totals],[Aufwand
 (in h)]]</f>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -4187,13 +4190,22 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <f>WEEKNUM(Tabelle3510819[[#This Row],[Datum]])-1</f>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>42739</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -4546,7 +4558,7 @@
       <c r="E83">
         <f>SUBTOTAL(109,Tabelle3510819[Aufwand
 (in h)])</f>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
